--- a/EmployeeResumeRead/employee_resumes_data.xlsx
+++ b/EmployeeResumeRead/employee_resumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,32 +468,184 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hemlatasfdc</t>
+          <t>mohitk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name:       Hemlata</t>
+          <t>Name: Mohit Kumar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Email:       hemlata</t>
+          <t>Email: mohitk9917@gm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9695727826</t>
+          <t>7983748491</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>hemlatasfdc1822@gmail.com</t>
+          <t>mohitk9917@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hemlata_Saleforce Developer (1).docx</t>
+          <t>MohitKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>rjtrivedi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RAJAT TRIVEDI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mob. No: 8851456225</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8851456225</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>rjtrivedi0@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>RajatTrivedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rameshkeshari</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Name RAMESH KUMAR KE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>JobRole: SalesforceD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9616671130</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>rameshkeshari9@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>RAMESHKUMARKESHARI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ravikiranrr</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ravikiran Rathod</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA (Master of Econom</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8983735080</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ravikiranrr443@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>RavikiranRathod</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DEEPANK TIWARI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Salesforce Developer</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8889622055</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DeepankTiwari</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shivagolla</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Golla Shiva</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Highly seasoned and </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7013874066</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>shivagolla2023@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>GollaShiva</t>
         </is>
       </c>
     </row>

--- a/EmployeeResumeRead/employee_resumes_data.xlsx
+++ b/EmployeeResumeRead/employee_resumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,184 +468,1852 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mohitk</t>
+          <t>ajaikrishnan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name: Mohit Kumar</t>
+          <t xml:space="preserve">OBJECTIVE STATEMENT </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Email: mohitk9917@gm</t>
+          <t>Excel as a Senior We</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7983748491</t>
+          <t>9345211363</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mohitk9917@gmail.com</t>
+          <t>ajaikrishnan13@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MohitKumar</t>
+          <t>AjaiKrishnan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rjtrivedi</t>
+          <t>anand</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RAJAT TRIVEDI</t>
+          <t>ANAND R</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mob. No: 8851456225</t>
+          <t>UI DEVELOPER</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8851456225</t>
+          <t>+91 9884254608</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>rjtrivedi0@gmail.com</t>
+          <t>anand0447@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RajatTrivedi</t>
+          <t>Anand</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rameshkeshari</t>
+          <t>arangasamy.arulselvi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Name RAMESH KUMAR KE</t>
+          <t>ARULSELVI. A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JobRole: SalesforceD</t>
+          <t xml:space="preserve">+91 9788781303      </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9616671130</t>
+          <t>+91 9788781303</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>rameshkeshari9@gmail.com</t>
+          <t>arangasamy.arulselvi@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RAMESHKUMARKESHARI</t>
+          <t>Arulselvi</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ravikiranrr</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ravikiran Rathod</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA (Master of Econom</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8983735080</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ravikiranrr443@gmail.com</t>
-        </is>
-      </c>
+          <t>BALASUBRAMANI P</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RavikiranRathod</t>
+          <t>Balasubramani</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bavithrarajagopal</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEEPANK TIWARI</t>
+          <t>+91 9677627791</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Salesforce Developer</t>
+          <t>B A V I T H R A R</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8889622055</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>+91 9677627791</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>bavithrarajagopal@gmail.com</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DeepankTiwari</t>
+          <t>BavithraRajagopal</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>shivagolla</t>
+          <t>bhuvanaapps</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Golla Shiva</t>
+          <t>3, Mariamman Kovil S</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Highly seasoned and </t>
+          <t>BHUVANESWARI N</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7013874066</t>
+          <t>9940839951</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>shivagolla2023@gmail.com</t>
+          <t>bhuvanaapps1409@gmail.com</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GollaShiva</t>
+          <t>BhuvaneswariNagarajan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>chanderbalu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>chanderbalu109@gmail</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9677184672</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>chanderbalu109@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ChanderBalasubramanian</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>praveen.pec</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Praveen Kumar CH    </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Software Developer, </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+91 9600179722</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>praveen.pec89@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chevurupraveenkumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>chithambaramd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CHITHAMBARAM. D</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         E-Mail: chi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>chithambaramd85@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ChithambaramD</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dhanasheelan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dhanasheelan Shanmug</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>React.js | JavaScrip</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9566612764</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>dhanasheelan1994@gmail.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dhanasheelans</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>elavarasan.selvaraj</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Elavarasan S</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chennai, Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9940837307</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>elavarasan.selvaraj14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ElavarasanS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>epsinov</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EPSI VICTORIYA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angular Developer &amp; </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>epsinov23@gmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EpsiVictoriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ganapathibabu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S.D. Ganesh Babu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E-Mail: - ganapathib</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ganapathibabu@gmail.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>GaneshBabuSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>indusathiya</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Indumathi M</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Immediate Joiner. Ha</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9789070160</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>indusathiya2015@gmail.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>IndumathiM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>chenchaiah</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	J CHENCHAIH</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9491239138</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>chenchaiah16@gmail.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>JCHENCHAIAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>jagadeeswari.ece.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jagadeeswari s</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mobile No: +91 93454</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>+91 9345481572</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>jagadeeswari.ece.27@gmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Jegadeeswari</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bonsaikarthick</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KARTHICK S</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bonsaikarthick1991@g</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9790475794</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>bonsaikarthick1991@gmail.com</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>KARTHICKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>karthihavocless</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KARTHIKEYAN G</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9094220219</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>karthihavocless28@gmail.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>KarthikeyanG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>karthikpjk</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KARTHIKEYANJ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SeniorFrontendDevelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9578038358</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>karthikpjk@gmail.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>KARTHIKEYAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>manishj</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(+91) 9943420922</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9943420922</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>manishj1597@gmail.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Manikandan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>a.najeerudeen</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohamed Najeerudeen </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(Immediate Joiner) +</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8072860050</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>a.najeerudeen@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MohamedNajeerudeenA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mohannbtechit</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MOHAN RAJ | FRONT-EN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chennai, India | +91</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8056254846</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>mohannbtechit12@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MOHANRAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mmugilan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MUGILAN.M | Phone: +</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MUGILAN.M</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>+91 9500828236</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mmugilan09@gmail.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MugilanM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mugilanbarasan</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mugil A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8667486072</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>mugilanbarasan@gmail.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mugil</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nandhinics</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nandhini Mani</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chennai, India</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>+91 9843662916</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>nandhinics29@gmail.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NandhiniMani</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>inijanthan</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NIJANTHAN I</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9790814513</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>inijanthan@gmail.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NijanthanI</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nikks</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nitish Kumar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SeniorFullStackDevel</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>+919790850233</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>nikks3768@gmail.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NITISHKUMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>paul.arockiyam</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Palraj Arockiaraj</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>paul.arockiyam@gmail</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9840823280</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>paul.arockiyam@gmail.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PalrajArockiaraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pandiyarajan.tcps</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPER</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PANDIYARAJAN.S      </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>+91 6369773659</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pandiyarajan.tcps@gmail.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PANDIYARAJANS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>prema</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7639425279</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>prema203@gmail.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Piraimathi</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>spradeebaselvaraj</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>S.PRADEEBA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>S.PRADEEBA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7708752621</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>spradeebaselvaraj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>pradeeba</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mcapraveenkumarp</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P. PRAVEEN KUMAR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+91 7845627408 </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>+91 7845627408</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>mcapraveenkumarp@gmail.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PraveenKumarP</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ragulkrishnaraj</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ragul Krishnaraj Mob</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UI UX Developer &amp; De</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9655334489</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ragulkrishnaraj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>RagulKrishnaraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ramlakshmibe</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Senior Web Developer</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Senior Web Developer</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9884563003</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ramlakshmibe@gmail.comAddress</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ramalakshmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>devr</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DEVENDIRAN R</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No.5/65, 2nd floor, </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9789896533</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>devr2086@gmail.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>RDevendiran</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sajin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SAJIN PRABHU Y</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Email Id: sajin43@gm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9944682919</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>sajin43@gmail.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SajinPrabhuY</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ahino.s</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SAM AHINO S</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>+91 6383449195</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ahino.s1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SamAhinoS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>santhoshsac</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Santhosh Kumar C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7402239129</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>santhoshsac1994@gmail.com</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Santhoshkumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>tsanthoshkumar</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SANTHOSH KUMAR T</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>+91 7418882627</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>tsanthoshkumar06@gmail.com</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SanthoshKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>saravana</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Saravanan Balasubram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>saravana282008@gmail</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9840490629</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>saravana282008@gmail.com</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Saravanan</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>csathishkumar</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Name: Sathish Kumar </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Email: csathishkumar</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8220642057</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>csathishkumar217@gmail.com</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SathishKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shaktishkumar</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Shaktish kumar M R</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>91766 83582</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>shaktishkumar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ShaktishkumarMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>shalu.ks</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SHALINI K S</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SENIOR PROGRAMMER</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7358756920</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>shalu05.ks@gmail.com</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ShaliniKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sengupta.shubodeep</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CONTACT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SHUBODEEP SENGUPTA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8949969210</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>sengupta.shubodeep@gmail.com</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Shubodeepsengupta</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>hasyms</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Plotno580,</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Shunmuga Sankar</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8807640056</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>hasyms21@gmail.com</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ShunmugaSankarM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>shyamala.k.techie</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SHYAMALA K</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Phone: +91-93619 541</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>shyamala.k.techie@gmail.com</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ShyamalaK</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>hellosimbu</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SILAMBARASAN K</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>hellosimbu2023@gmail</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>+91 9360277878</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>hellosimbu2023@gmail.com</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>silambarsan</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>arivu</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SIVARAMAKRISHNAN D  </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    arivu1243@gmail.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>+91 9488672109</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>arivu1243@gmail.com</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SivaramakrishnanD</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>keerthisuryakumar</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>S.Keerthiha</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10-5-15 /A.9 Rathina</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9597248302</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>keerthisuryakumar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Skeerthiha</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mailforsoundar</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>S.SOUNDAR RAJAN Emai</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Contact No: 99403623</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9940362337</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>mailforsoundar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SoundarRajan</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sujith.spk</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sujith SoundaraPandi</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Handphone : +91 9363</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>+91 9363474903</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>sujith.spk46@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SujithSoundaraPandianK</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>surendrann</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SURENDRAN N</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Senior UI Frontend D</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9965470854</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>surendrann85@gmail.com</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SURENDRANNATARAJAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vasanth</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VASANTHAN RAJI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Email: vasanth100790</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>+91 7871797603</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>vasanth100790@gmail.com</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>VasanthanRaji</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>velmuruganc</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Professional Summary</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Skilled and motivate</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>+91 9360322734</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>velmuruganc6@gmail.com</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>VelmuruganC</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>velmurugantelecom</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Velmurugan S Mail: v</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6382974326</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>velmurugantelecom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>VelmuruganS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>divakarvenati</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Venati Divakar</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Contact: +91 9182848</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>+91 9182848382</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>divakarvenati@gmail.com</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>VenatiDivakar</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vijayvs.ns</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Vijay.V.S.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>www.vijaythedevelope</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>+919840660221</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>vijayvs.ns@gmail.com</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>VijayVS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vishnupriyak</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Vishnupriya</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>vishnupriya2k14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>VishnupriyaR</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>yokeshmani</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>YOKESH.M</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Phone: +91-958589686</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9585896868</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>yokeshmani11@gmail.com</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Yokesh</t>
         </is>
       </c>
     </row>

--- a/EmployeeResumeRead/employee_resumes_data.xlsx
+++ b/EmployeeResumeRead/employee_resumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,38 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bhuvanaapps</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, Mariamman Kovil S</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BHUVANESWARI N</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9940839951</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>bhuvanaapps1409@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BhuvaneswariNagarajan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/EmployeeResumeRead/employee_resumes_data.xlsx
+++ b/EmployeeResumeRead/employee_resumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,180 +468,160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ajaikrishnan</t>
+          <t>addankilloyd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">OBJECTIVE STATEMENT </t>
+          <t>Addanki Christine Ll</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Excel as a Senior We</t>
+          <t>9908565790 | addanki</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9345211363</t>
+          <t>9908565790</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ajaikrishnan13@gmail.com</t>
+          <t>addankilloyd@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AjaiKrishnan</t>
+          <t>AddankiChristineLloyd</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>anand</t>
+          <t>sivakumar.aditya</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ANAND R</t>
+          <t>Munukutla Aditya Siv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UI DEVELOPER</t>
+          <t>Email: sivakumar.adi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+91 9884254608</t>
+          <t>7416877601</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>anand0447@gmail.com</t>
+          <t>sivakumar.aditya4@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Anand</t>
+          <t>ADITYASIVAKUMARMUNUKUTLA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>arangasamy.arulselvi</t>
+          <t>akshaykulkarni</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARULSELVI. A</t>
+          <t>Akshay 11 Years of e</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">+91 9788781303      </t>
+          <t>React, javascript, j</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+91 9788781303</t>
+          <t>9765282264</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>arangasamy.arulselvi@gmail.com</t>
+          <t>akshaykulkarni0488@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Arulselvi</t>
+          <t>AkshayBalkrishnaKulkarni</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ambarishmamidireact</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>Ambarish Mamidi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BALASUBRAMANI P</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>Mobile: +91967635593</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+919676355937</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ambarishmamidireact0612@gmail.com</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Balasubramani</t>
+          <t>AMBARISHMAMIDI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bavithrarajagopal</t>
+          <t>amersohel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+91 9677627791</t>
+          <t xml:space="preserve">+91 8459416686 Amer </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B A V I T H R A R</t>
+          <t>amersohel4663@gmail.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+91 9677627791</t>
+          <t>+91 8459416686</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bavithrarajagopal@gmail.com</t>
+          <t>amersohel4663@gmail.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BavithraRajagopal</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bhuvanaapps</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3, Mariamman Kovil S</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BHUVANESWARI N</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9940839951</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>bhuvanaapps1409@gmail.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>BhuvaneswariNagarajan</t>
+          <t>AmerSohel</t>
         </is>
       </c>
     </row>

--- a/EmployeeResumeRead/employee_resumes_data.xlsx
+++ b/EmployeeResumeRead/employee_resumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,38 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>amrithraj</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amrithraj Nalam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.linkedin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+91 9908586151</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>amrithraj879@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AmrithrajNalam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/EmployeeResumeRead/employee_resumes_data.xlsx
+++ b/EmployeeResumeRead/employee_resumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,192 +468,1796 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>addankilloyd</t>
+          <t>abhiverma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Addanki Christine Ll</t>
+          <t>ABHISHEK VERMA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9908565790 | addanki</t>
+          <t>Senior Software Engi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9908565790</t>
+          <t>+91 9713152685</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>addankilloyd@gmail.com</t>
+          <t>abhi8verma@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AddankiChristineLloyd</t>
+          <t>AbhishekVerma</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sivakumar.aditya</t>
+          <t>shardaadhav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Munukutla Aditya Siv</t>
+          <t>Sharda Adhav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Email: sivakumar.adi</t>
+          <t>Email:shardaadhav96@</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7416877601</t>
+          <t>9370886515</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sivakumar.aditya4@gmail.com</t>
+          <t>shardaadhav96@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ADITYASIVAKUMARMUNUKUTLA</t>
+          <t>AdhavShardaRangrao</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>akshaykulkarni</t>
+          <t>ajinkyaimpossible</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Akshay 11 Years of e</t>
+          <t>AJINKYA ASHOK SABLE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>React, javascript, j</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9765282264</t>
+          <t>+919689343001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>akshaykulkarni0488@gmail.com</t>
+          <t>ajinkyaimpossible@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AkshayBalkrishnaKulkarni</t>
+          <t>AjinkyaAshokSable</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ambarishmamidireact</t>
+          <t>ajinkyapadwal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ambarish Mamidi</t>
+          <t xml:space="preserve">Ajinkya D. Padwal | </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mobile: +91967635593</t>
+          <t>Technical Skills:</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+919676355937</t>
+          <t>8459745988</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ambarishmamidireact0612@gmail.com</t>
+          <t>ajinkyapadwal5@gmail.com</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AMBARISHMAMIDI</t>
+          <t>AjinkyaPadwal</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>amersohel</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">+91 8459416686 Amer </t>
+          <t>AKASH PHONE (+91) 80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>amersohel4663@gmail.</t>
+          <t>EMAIL khadeakash806@</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+91 8459416686</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>amersohel4663@gmail.com</t>
-        </is>
-      </c>
+          <t>8007326162</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AmerSohel</t>
+          <t>AkashKhade</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>amrithraj</t>
+          <t>nairakshaynair</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amrithraj Nalam</t>
+          <t>AKSHAY PHONE (+91) 9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.linkedin</t>
+          <t>EMAIL nairakshaynair</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+91 9908586151</t>
+          <t>9689615991</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>amrithraj879@gmail.com</t>
+          <t>nairakshaynair@gmail.co</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AmrithrajNalam</t>
+          <t>AkshayChellath</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>shirke.amit</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AMIT SHRIDHAR SHIRKE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E-MAIL: shirke.amit5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9892981746</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>shirke.amit50@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AmitShirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>anamikavb</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anamika Bhagannavar </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">front End Developer </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8793260664</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>anamikavb284@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AnamikaVikrantBhagannavar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>apurvashinde</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CONTACT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>APURVA RATNAPARKHI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>+91 9175796551</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>apurvashinde57@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ApurvaPratikRatnaparkhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ashwinibhadane</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASHWINI BHADANE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SOFTWARE DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ashwinibhadane09@gmail.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ASHWINIDEVIDASBHADANE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lotekarchetna</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CHETNA PHONE (+91) 7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EMAIL lotekarchetna@</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7620271806</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>lotekarchetna@gmail.co</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chetna</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dspansare</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DHAIRYASHIL PANSARE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>+91 88055 55319 ⋄ Ko</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>dspansare1991@gmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DhairyashilSanjayPansare</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>shahdhaval</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D h a v a l S h a h</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sr. Software Enginee</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9408887036</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>shahdhaval0107@gmail.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DhavalShah</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dipalisingh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dipali Singh</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EMAIL: dipalisingh19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>+91 8668554363</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>dipalisingh196@gmail.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DipaliSingh</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>jayssingh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>J A Y S I N G H</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UI and HTML Develope</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9004128523</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>jayssingh032@gmail.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>JaySingh</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kanchanshinde</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Kanchan Dattatray Sh</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7020030298</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>kanchanshinde5495@gmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>KanchanDattatrayShinde</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kanchaniskande</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kanchan Kadlag</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Email: kanchaniskand</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>+91 9518574945</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>kanchaniskande1993@gmail.com</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>KanchandnyaneshwarKadlag</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kvrsonawane</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Kavita Kewal Patade</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9665209848</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>kvrsonawane@gmail.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>KavitaKewalPatade</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ketan.valsangkar</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>WORK EXPERIENCE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ketan Valsangkar</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9096851512</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ketan.valsangkar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ketan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>skishor</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KISHOR VYANKATESH SH</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Flat No. 33, Bldg. N</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>+919028558713</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>skishor2310@gmail.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>KishorVShetti</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>garjemahesh</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahesh Arvind Garje </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5+ years’ experience</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>+91 7020083214</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>garjemahesh238@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MaheshArvindGarje</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>bandlamudimahesh</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mahesh Bandlamudi,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>+91 9700807171</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>bandlamudimahesh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MaheshBandlamudi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>anirudh.malodeofficial</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ANIRUDH MALODE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Adaptable,Agile&amp;Rece</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8668454903</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>anirudh.malodeofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MALODEANIRUDHNAMDEVRAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>waghmodemanisha</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Curriculum Vitae</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrs. Manisha Hulage </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>+91 8605903494</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>waghmodemanisha@gmail.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Manisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mk.kamble</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CURRICULUM VITAE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Manojkumar Balaji Ka</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>mk10.kamble@gmail.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ManojkumarKambale</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mohanrandive</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mohan Randive</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Email:mohanrandive93</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9158441328</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>mohanrandive93@gmail.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MohanRandive</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nagesh.kolle</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PHONE (+91) 89755721</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NAGESH ARUN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8975572193</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>nagesh.kolle@gmail.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NageshArunKolle</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nageshangular</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nagesh Vishwanath Sa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5+ years’ experience</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>+917387925918</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nageshangular14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NageshSakhare</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>nagnathk</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(+91) 8698183885</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NAGNATH KARKALE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8698183885</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>nagnathk12@gmail.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NagnathBalajiKarkale</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>nmtambare</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NAMRATA TAMBARE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Email–nmtambare@gmai</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9881913301</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>nmtambare@gmail.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NamrataMangeshTambare</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>nehaninawe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NEHA NINAWE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9503934643 ⋄ Pune ⋄ </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9503934643</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>nehaninawe7@gmail.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NehaOmdeoNinawe</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pankajpatil</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Mr. Pankaj B Patil</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>+91 8087937671</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>pankajpatil1088@gmail.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PankajBhanudasPatil</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>poojabalsaraf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pooja Balsaraf</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Angular developer</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9284252853</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>poojabalsaraf64@gmail.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Poojabalsaraf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>pradip</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																Prad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>+91 9637316050</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>pradip8030@gmail.com</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>PradipPradhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>pravin.padole</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pravin Padole</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Flat no 501,G-12, Ga</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8855056114</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>pravin.padole15@gmail.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PravinPadole</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>prem</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Prem Shankar Bharti</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Email : prem100891@g</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>+919455768438</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>prem100891@gmail.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>PREMSHANKARBHARTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ratankavade</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RATAN KAVADE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Senior Software Engi</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9970344651</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ratankavade7@gmail.com</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>RatanKavade</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>reshampawar</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Resham Vijay Pawar.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>E-mail: reshampawar2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7972198086</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>reshampawar2121@gmail.com</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ReshamVijayPawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>rupswagh</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rupali Wagh</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>+91 7709210639</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>+91 7709210639</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>rupswagh2021@gmail.com</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>RupaliMarutiWagh</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>rutuja.ruke</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PHONE (+91) 88502949</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>RUTUJA BIPIN</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8850294958</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>rutuja.ruke9@gmail.com</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>RutujaBipinDhotre</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>samikshasajane</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Samiksha Sajane</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Software Engineer ||</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7972068721</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>samikshasajane@gmail.com</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SamikshaSajane</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sandeshpangrekar</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sandesh Pangrekar</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>E-mail: sandeshpangr</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>+91 7447713725</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>sandeshpangrekar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SandeshPangrekar</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Snjchauhan</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SANJAY CHAUHAN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Contact No.:+9188511</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>+918851180705</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Snjchauhan02@gmail.com</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SANJAYCHAUHAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>stikambare</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tikambare Siddheshwa</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7776877111</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>stikambare28@gmail.com</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>siddheswarVishwanathTikambare</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>smita.mulye</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Smita Mulye Mobile N</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Email-ID: smita.muly</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8380029926</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>smita.mulye123@gmail.com</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SmitaAnantmulye</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>snehalshahapurkar</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>snehalshahapurkar88@</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Snehal S. Shahapurka</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8861122924</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>snehalshahapurkar88@gmail.com</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SnehalShahapurkar</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>soniyasalampuriya</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SONIYA SALAMPURIYA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Email: soniyasalampu</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>+917020649379</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>soniyasalampuriya94@gmail.com</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SoniyaSalampuriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sonukumar</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SONU KUMAR</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>UI - Angular Develop</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7058947843</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>sonukumar8021@gmail.com</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SonuKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>srpatil</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Professional Experie</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SoftwareEngineer-Fro</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>+919766930049</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>07srpatil@gmail.com</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SudeshPatil</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ansarisuhail</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SENIOR DEVELOPER WIT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9773824213</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ansarisuhail2580@gmail.com</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SUHAILANSARI</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sumedhaprithyani</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>WORK EXPERIENCE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TECHNICAL LEAD</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>sumedhaprithyani24@gmail.com</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SumedhaPrithyani</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>shindesushma</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sushama Shrikant Pat</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Email: shindesushma9</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8180930668</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>shindesushma92@gmail.com</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SushamaPatil</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>swatibhmr</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWATI  BHAMARE </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">swatibhmr@gmail.com </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8329911620</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>swatibhmr@gmail.com</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>SwatiBhamareUIUXDeveloper</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>swati.zalavadiya</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SWATI  ZALAVADIYA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>swati.zalavadiya@gma</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>+91 9773101727</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>swati.zalavadiya@gmail.com</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>SwatiZalavadiya</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>tamarapu.kartik</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Tamarapu Kartik</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9437512801</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>tamarapu.kartik@gmail.com</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>TamarapuKartik</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vrushankm</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Vrushank Modi</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>FRONT END DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>vrushankm19@gmail.com</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>VrushankModi</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>shahzaheer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ZAHEER SHAH</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FRONTEND DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>+919552220876</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>shahzaheer530@gmail.com</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ZaheerAhmadShah</t>
         </is>
       </c>
     </row>

--- a/EmployeeResumeRead/employee_resumes_data.xlsx
+++ b/EmployeeResumeRead/employee_resumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>skills</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Designation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -529,9 +534,10 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Angular', 'JavaScript', 'MySQL', 'agile', 'GIT', 'iOS', 'HTML', 'Bootstrap', 'scrum', 'Javascript', 'R', 'Microservices', 'unit testing', 'MongoDB', 'Typescript']</t>
-        </is>
-      </c>
+          <t>['iOS', 'Microservices', 'Angular', 'JavaScript', 'unit testing', 'MySQL', 'MongoDB', 'Jest', 'Bootstrap', 'agile', 'Typescript', 'R', 'scrum', 'GIT', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -581,9 +587,10 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Eclipse', 'Angular', 'Scrum', 'bootstrap', 'Agile', 'JIRA', 'MySQL', 'Bootstrap', 'HTML', 'unit testing', 'Python', 'web services', 'Web services', 'Java']</t>
-        </is>
-      </c>
+          <t>['Eclipse', 'web services', 'bootstrap', 'Angular', 'Scrum', 'HTML/CSS', 'Java', 'Python', 'Bootstrap', 'MySQL', 'Agile', 'HTML', 'JIRA', 'Web services', 'unit testing']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -629,9 +636,3124 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['CodeIgniter', 'Agile', 'JavaScript', 'MySQL', 'Bootstrap', 'HTML', 'C', 'Android', 'Windows', 'Git', 'PHP']</t>
-        </is>
-      </c>
+          <t>['Git', 'Android', 'JavaScript', 'Windows', 'MySQL', 'Agile', 'CodeIgniter', 'Bootstrap', 'C', 'PHP', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AjinkyaPadwal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8459745988</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ajinkyapadwal5@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ajinkyapadwal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajinkya D. Padwal | </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Technical Skills:</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['Firebase', 'Redux', 'Angular', 'Jest', 'MySQL', 'React', 'Bootstrap', 'TypeScript']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AkashKhade</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8007326162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AKASH PHONE (+91) 80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EMAIL khadeakash806@</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5 Years</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['Html', 'Css', 'BOOTSTRAP', 'Jquery', 'Figma', 'Bootstrap', 'React', 'c', 'strategy', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AkshayChellath</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9689615991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nairakshaynair@gmail.co</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nairakshaynair</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AKSHAY PHONE (+91) 9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EMAIL nairakshaynair</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6 Years</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['Html', 'Css', 'Tailwind CSS', 'Angular', 'Jquery', 'Laravel', 'Wordpress', 'Bootstrap', 'Visual Studio Code', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AmitShirke</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9892981746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>shirke.amit50@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>shirke.amit</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AMIT SHRIDHAR SHIRKE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E-MAIL: shirke.amit5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6y_6m</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['Postman', 'MongoDB', 'Bootstrap', 'React', 'C', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AmitUnagar</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7016041760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>amit230@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>amit</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amit Unagar+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Looking for New Job </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8.5+ Years</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>8y_5m</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[('Client', "don't know \r")]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['Usability Testing', 'R', 'HTML', 'html']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Role : UI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AnamikaVikrantBhagannavar</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8793260664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>anamikavb284@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>anamikavb</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anamika Bhagannavar </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">front End Developer </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4 years</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5y_5m</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['CSS', 'Jira', 'Android', 'JavaScript', 'HTML/CSS', 'html', 'Bootstrap', 'Click', 'click', 'strategy', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ApurvaPratikRatnaparkhi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>+91 9175796551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>apurvashinde57@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>apurvashinde</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CONTACT</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>APURVA RATNAPARKHI</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7 Years</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7y_5m</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['Angular', 'JQuery', 'JavaScript', 'Agile', 'Bootstrap', 'C', 'Typescript']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ASHWINIDEVIDASBHADANE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ashwinibhadane09@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ashwinibhadane</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ASHWINI BHADANE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>SOFTWARE DEVELOPER</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['Windows', 'Angular']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chetna</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7620271806</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lotekarchetna@gmail.co</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>lotekarchetna</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CHETNA PHONE (+91) 7</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EMAIL lotekarchetna@</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4 Years</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['Html', 'Css', 'Postman', 'Spring', 'Linux', 'Node.Js', 'Java', 'React.Js', 'html', 'React', 'Bootstrap', 'Agile', 'MongoDB', 'Visual Studio Code', 'java', 'Hibernate', 'GIT', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DhairyashilSanjayPansare</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>dspansare1991@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>dspansare</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DHAIRYASHIL PANSARE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>+91 88055 55319 ⋄ Ko</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6 Years</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['CSS', 'Unit testing', 'jQuery', 'Windows', 'MySQL', 'WordPress', 'Bootstrap', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DhavalShah</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9408887036</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>shahdhaval0107@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>shahdhaval</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>D h a v a l S h a h</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sr. Software Enginee</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7+ years</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['CSS', 'Git', 'jQuery', 'JavaScript', 'Sketch', 'Agile', 'WordPress', 'React', 'C', 'Figma', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DipaliSingh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>+91 8668554363</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>dipalisingh196@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dipalisingh</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dipali Singh</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EMAIL: dipalisingh19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['Excel', 'WordPress', 'HTML', 'Adobe XD', '.net']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GaneshDilipShinde</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7507062567</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Name: Mr. Ganesh Shi</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Address: Lohegaon Pu</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5.10 years</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5y_10m</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['DynamoDB', 'MYSQL', 'AWS', 'PHP', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JaySingh</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9004128523</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>jayssingh032@gmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>jayssingh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>J A Y S I N G H</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>UI and HTML Develope</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['CSS', 'Jira', 'Git', 'Angular', 'jQuery', 'JQuery', 'JavaScript', 'Figma', 'WordPress', 'Bootstrap', 'C', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KanchanDattatrayShinde</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7020030298</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>kanchanshinde5495@gmail.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>kanchanshinde</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Kanchan Dattatray Sh</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5.6 years</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['Yii', 'Git', 'spark', 'JavaScript', 'Linux', 'Jenkins', 'CodeIgniter', 'Agile', 'React', 'Bootstrap', 'Java', 'java', 'PHP']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KanchandnyaneshwarKadlag</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>+91 9518574945</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>kanchaniskande1993@gmail.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>kanchaniskande</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Kanchan Kadlag</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Email: kanchaniskand</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>8.3 years</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['CSS', 'Eclipse', 'GitHub', 'Angular', 'SQL', 'JavaScript', 'Azure', 'MongoDB', 'Bootstrap', 'requests', 'Terraform', 'TypeScript']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KavitaKewalPatade</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9665209848</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>kvrsonawane@gmail.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>kvrsonawane</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Kavita Kewal Patade</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>7+ Years</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>8y_2m</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['Angular', 'JavaScript', 'MySQL', 'MYSQL', 'CodeIgniter', 'C', 'PHP', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ketan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9096851512</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ketan.valsangkar@gmail.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ketan.valsangkar</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>WORK EXPERIENCE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ketan Valsangkar</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>8 years</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>12y_0m</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['Karma', 'Angular', 'Scrum', 'Bootstrap', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KishorVShetti</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>+919028558713</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>skishor2310@gmail.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skishor</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KISHOR VYANKATESH SH</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Flat No. 33, Bldg. N</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10 years</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>10y_0m</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['CSS', 'Tailwind CSS', 'asp.net', 'MySQL', 'Figma', 'HTML', 'Bootstrap', 'C', 'javascript', 'ASP.NET', 'Adobe XD']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MaheshArvindGarje</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>+91 7020083214</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>garjemahesh238@gmail.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>garjemahesh</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahesh Arvind Garje </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5+ years’ experience</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['bootstrap', 'Android', 'GitHub', 'Angular', 'angular', 'JavaScript', 'Quick', 'Figma', 'Visual Studio Code', 'Bootstrap', 'Typescript', 'c', 'typescript', 'android', 'r', 'play', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MaheshBandlamudi</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>+91 9700807171</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>bandlamudimahesh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>bandlamudimahesh</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mahesh Bandlamudi,</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>9+ years</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>9y_3m</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['CSS', 'Jira', 'Angular', 'Invision', 'unit testing', 'Java', 'WordPress', 'Agile', 'Bootstrap', 'C', 'Drupal', 'agile', 'React', 'HTML', 'GIT']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Designation: Senior</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MALODEANIRUDHNAMDEVRAO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>8668454903</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>anirudh.malodeofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>anirudh.malodeofficial</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ANIRUDH MALODE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Adaptable,Agile&amp;Rece</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['Jenkins', 'javaScript', 'Agile', 'Bootstrap', 'github', 'Graphql', 'C', 'TypeScript', 'GIT']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Manisha</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>+91 8605903494</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>waghmodemanisha@gmail.com</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>waghmodemanisha</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Curriculum Vitae</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrs. Manisha Hulage </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10 years</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10y_0m</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['KANBAN']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ManjushaDevanandSahare</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8999360344</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MANJUSHA PHONE (+91)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>EMAIL manjushasahare</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4 Years</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['CSS', 'Html', 'angular', 'MySQL', 'Java', 'Bootstrap', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ManojkumarKambale</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>mk10.kamble@gmail.com</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>mk.kamble</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CURRICULUM VITAE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Manojkumar Balaji Ka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['CSS', 'Oracle', 'Hadoop', 'JavaScript', 'MySQL', 'WordPress', 'MongoDB', 'Bootstrap', 'Strategy', 'PL/SQL', 'PHP', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MohanRandive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9158441328</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>mohanrandive93@gmail.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>mohanrandive</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mohan Randive</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Email:mohanrandive93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>7 years</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['React', 'Angular']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MohasinSallauddinSayyad</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>8605717860</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>mohasinsayyad1264@gmail.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>mohasinsayyad</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Mohasin Sallauddin S</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Software Engineer at</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>6 years</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>6y_5m</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['CSS', 'Codeigniter', 'SQL', 'MySQL', 'Bootstrap', 'R', 'PHP', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Role : Full</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mugdha</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9699902906</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>mmugdha348@gmail.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>mmugdha</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MUGDHA M.					     E</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>7 Years</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[('Company', 'Wingsss Aviation and Hospitality\r'), ('Company', 'Dr. D. Y. Patil Vidyapeeth, Pune (IDL)\r'), ('Company', 'Amral Infotech\r')]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['Spring', 'Java', 'C', 'postman', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Designation:	PR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NageshArunKolle</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8975572193</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>nagesh.kolle@gmail.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>nagesh.kolle</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PHONE (+91) 89755721</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NAGESH ARUN</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>9 Years</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['Html', 'CSS', 'Unit Testing', 'usability testing', 'Bootstrap', 'GIT', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NageshSakhare</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>+917387925918</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>nageshangular14@gmail.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>nageshangular</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nagesh Vishwanath Sa</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5+ years’ experience</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['Angular', 'Postman', 'angular', 'Quick', 'Figma', 'Bootstrap', 'Visual Studio Code', 'Typescript', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NagnathBalajiKarkale</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8698183885</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>nagnathk12@gmail.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>nagnathk</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>(+91) 8698183885</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NAGNATH KARKALE</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>6.5 years</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>6y_5m</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['Redux', 'Angular', 'JavaScript', 'Excel', 'RESTful APIs', 'Bootstrap', 'TypeScript', 'unit testing']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NakaMinati</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>7504974807</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Naka Minati</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Senior UI developer</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5 Years</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>5y_5m</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['CSS', 'Html', 'Node.js', 'jQuery', 'React.js', 'JavaScript', 'Wordpress', 'React.Js', 'Bootstrap', 'r', 'PHP', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NamrataMangeshTambare</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9881913301</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>nmtambare@gmail.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>nmtambare</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NAMRATA TAMBARE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Email–nmtambare@gmai</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>6y_6m</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[('Projects', 'DotWork,TellAgent,LockWork,AccelHealth,CQI,Horsly,SkillUp-gradation')]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['Node.js', 'Git', 'Laravel', 'Windows', 'MySQL', 'React']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NehaOmdeoNinawe</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9503934643</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>nehaninawe7@gmail.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>nehaninawe</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NEHA NINAWE</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9503934643 ⋄ Pune ⋄ </t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['SPARK', 'Redux', 'JSON', 'React.js', 'JAVASCRIPT', 'WordPress', 'React']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NikhilPrakashBodekar</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>+91 9762484977</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>nikhilbodekar@gmail.com</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>nikhilbodekar</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NIKHIL BODEKAR+</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B. Tech. ( Computer </t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>6y_6m</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Eclipse', 'MySQL', 'Java', 'C', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Designation: Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NileshKamble</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>8669100478</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>nileshkamble15@gmail.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>nileshkamble</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESUME+</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5.5 years</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>5y_5m</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['JavaScript', 'CodeIgniter', 'C', 'UI-UX', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PankajBhanudasPatil</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>+91 8087937671</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>pankajpatil1088@gmail.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>pankajpatil</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mr. Pankaj B Patil</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['Git', 'JavaScript', 'Windows', 'Java', 'WordPress', 'Bootstrap', 'Bitbucket', 'Visual Studio Code', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ParagSanjayNarvekar</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9766530074</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Parag Sanjay</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Narvekar</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>8 Years</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['CSS', 'bootstrap', 'css', 'wordpress', 'php', 'React.js', 'jQuery', 'Wordpress', 'jquery', 'html', 'Bootstrap', 'mysql', 'javascript', 'HTML', 'GIT']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Poojabalsaraf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9284252853</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>poojabalsaraf64@gmail.com</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>poojabalsaraf</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pooja Balsaraf</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Angular developer</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['R', 'HTML', 'Angular']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PradipPradhan</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>+91 9637316050</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>pradip8030@gmail.com</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>pradip</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">																Prad</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>8 years</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>7y_2m</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['Html', 'JavaScript', 'Wordpress', 'Windows', 'figma', 'html', 'Bootstrap', 'C', 'Agile', 'requests', 'Asp.net', 'HTML', 'GIT']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Role		:  HTML</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PravinPadole</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>8855056114</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>pravin.padole15@gmail.com</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>pravin.padole</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Pravin Padole</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Flat no 501,G-12, Ga</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>9 Years</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[('Client', 'Sugarfina (https://www.sugarfina.com/refer-a-friend)Jennikayne : https://www.jennikayne.com/refer-a-friend'), ('Client', 'Sugarfina (https://www.sugarfina.com/rewards/myaccount/rewards/),Jennikayne (https://www.jennikayne.com/rewards-dashboard)'), ('Client', 'GHBASS (https://www.ghbass.com/product/proctor+canvas+buck.do?sortby=ourPicksHYPERLINK "https://www.ghbass.com/product/proctor+canvas+buck.do?sortby=ourPicks&amp;from=fn&amp;selectedOption=556228"&amp;HYPERLINK "https://www.ghbass.com/product/proctor+canvas+buck.do?sortby=ourPicks&amp;from=fn&amp;selectedOption=556228"from=fnHYPERLINK "https://www.ghbass.com/product/proctor+canvas+buck.do?sortby=ourPicks&amp;from=fn&amp;selectedOption=556228"&amp;HYPERLINK "https://www.ghbass.com/product/proctor+canvas+buck.do?sortby=ourPicks&amp;from=fn&amp;selectedOption=556228"selectedOption=556228)\t\tDescription : - display users rating and review on the product page and make responsive design.Technology: HTML, HTML5, CSS, CSS3, Bootstrap and Media Queries, JavaScript.'), ('Client', 'DKNY (https://www.donnakaran.com/category/dkny.do)GHBASS: https://www.ghbass.com/home.do\t\tDescription : - display Instagram images on home page and also upload image from computer, Facebook.Also display images on gallery page. Make responsive design usingTechnology: HTML, HTML5, CSS, CSS3, Bootstrap and Media Queries, JavaScript.'), ('Client', 'peavey(https://peavey.com/products/index.cfm/item/669/118988/)\t\t')]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['REACT', 'HTML', 'React']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Role: we</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PREMSHANKARBHARTI</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>+919455768438</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>prem100891@gmail.com</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>prem</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Prem Shankar Bharti</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Email : prem100891@g</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>6y_6m</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['Redux', 'Jquery', 'Figma', 'Agile', 'Typescript', 'JIRA', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Role:WorkedonFrontEndSideDevelopment</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RatanKavade</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9970344651</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ratankavade7@gmail.com</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ratankavade</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RATAN KAVADE</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Senior Software Engi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>9.6 years</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>9y_7m</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['react', 'Angular', 'GITHUB', 'JavaScript', 'Github', 'Agile', 'RESTful APIs', 'React', 'github', 'Typescript', 'Bootstrap']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ReshamVijayPawar</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>7972198086</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>reshampawar2121@gmail.com</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>reshampawar</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Resham Vijay Pawar.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>E-mail: reshampawar2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5.8 Years</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>5y_9m</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[('Organization', 'Harbinger Group  (17Th Jan 2023– 15 March 2023)'), ('Organization', 'Accenture Solutions Pvt. Ltd (29Th May 2021– 2 Nov 2022)'), ('Organization', 'Xpressbees Logistics PVT LTD (23 APril2018– 25Th May 2021) Profile: Software Devloper'), ('Organization', 'Ample Softech Systems Pvt Ltd. (6 March 2017– 16April 2018) Profile: UI Developer')]</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['CSS', 'git', 'JSON', 'SQL', 'jQuery', 'JavaScript', 'Agile', 'Vue', 'React', 'Bootstrap']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RupaliMarutiWagh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>+91 7709210639</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>rupswagh2021@gmail.com</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>rupswagh</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Rupali Wagh</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>+91 7709210639</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>7 years</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['REACT', 'Redux', 'Angular', 'JSON', 'React.js', 'MySQL', 'MongoDB', 'JEST', 'Bootstrap', 'React', 'Django', 'Python', 'Agile', 'HTML', 'GIT']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RutujaBipinDhotre</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>8850294958</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>rutuja.ruke9@gmail.com</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>rutuja.ruke</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>PHONE (+91) 88502949</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>RUTUJA BIPIN</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>6 Years</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Html', 'REACT', 'Jira', 'excel', 'Css', 'Mysql', 'Jquery', 'Github', 'WordPress', 'Javascript', 'Bootstrap', 'React', 'React.Js', 'Json', 'Sql', 'HTML', 'GIT']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SamikshaSajane</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>7972068721</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>samikshasajane@gmail.com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>samikshasajane</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Samiksha Sajane</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Software Engineer ||</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[('Projects', 'LANGUAGES')]</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['Redux', 'wordpress', 'JavaScript', 'Scrum', 'Quick', 'Bootstrap', 'JIRA', 'PHP', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SandeshPangrekar</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>+91 7447713725</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>sandeshpangrekar@gmail.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>sandeshpangrekar</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Sandesh Pangrekar</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>E-mail: sandeshpangr</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5.5+ Years</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>5y_5m</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['Git', 'Angular', 'Laravel', 'Windows', 'MySQL', 'C', 'PHP']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SANJAYCHAUHAN</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>+918851180705</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Snjchauhan02@gmail.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Snjchauhan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SANJAY CHAUHAN</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Contact No.:+9188511</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>5+ Years</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['CSS', 'Jquery', 'JQuery', 'HTML', 'GIT']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SHAIKHANSAR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>8087256717</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Shaikh Ansar</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Front-end Developer</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>5y_1m</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['React', 'JavaScript']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>siddheswarVishwanathTikambare</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>7776877111</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>stikambare28@gmail.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>stikambare</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tikambare Siddheshwa</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1 years</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>5y_10m</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['Jira', 'Windows', 'JAVASCRIPT', 'HTML', 'Visual Studio Code', 'C', 'Bootstrap', 'REDUX']</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SmitaAnantmulye</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>8380029926</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>smita.mulye123@gmail.com</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>smita.mulye</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Smita Mulye Mobile N</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Email-ID: smita.muly</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[('Client', 'Zensar Technologies')]</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['GitHub', 'JavaScript', 'python', 'MYSQL', 'Windows', 'Python', 'Visual Studio Code', 'Visual studio Code', 'HTML', 'GIT']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Role: Software</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SnehalShahapurkar</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>8861122924</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>snehalshahapurkar88@gmail.com</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>snehalshahapurkar</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>snehalshahapurkar88@</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Snehal S. Shahapurka</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>5+ Years</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['JAVA', 'PHP', 'SELENIUM', 'JQuery', 'integration testing', 'Windows', 'Quick', 'html', 'Bootstrap', 'C', 'Integration Testing', 'Linux']</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SoniyaSalampuriya</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>+917020649379</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>soniyasalampuriya94@gmail.com</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>soniyasalampuriya</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SONIYA SALAMPURIYA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Email: soniyasalampu</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>4.8 years</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['WordPress', 'Figma', 'React', 'WORDPRESS', 'PHP', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SonuKumar</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>7058947843</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>sonukumar8021@gmail.com</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>sonukumar</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SONU KUMAR</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>UI - Angular Develop</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>4 years</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['Git', 'Angular', 'JavaScript', 'Jest', 'PHP', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SudeshPatil</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>+919766930049</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>07srpatil@gmail.com</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>srpatil</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Professional Experie</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>SoftwareEngineer-Fro</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>5y_3m</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['CSS', 'Jira', 'Angular', 'angular', 'JavaScript', 'Jasmine', 'TypeScript']</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SUHAILANSARI</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>9773824213</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ansarisuhail2580@gmail.com</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ansarisuhail</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>SENIOR DEVELOPER WIT</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>7 YEARS</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['CSS', 'GitHub', 'Angular', 'JSON', 'JavaScript', 'MySQL', 'Agile', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SumedhaPrithyani</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>sumedhaprithyani24@gmail.com</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>sumedhaprithyani</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>WORK EXPERIENCE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>TECHNICAL LEAD</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>8+ years</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['CSS', 'react', 'Angular', 'graphQL', 'php', 'jquery', 'Github', 'Agile', 'github', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SushamaPatil</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>8180930668</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>shindesushma92@gmail.com</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>shindesushma</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sushama Shrikant Pat</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Email: shindesushma9</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>5+ Years</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>5y_2m</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['wordpress', 'jira', 'Wordpress', 'React', 'java', 'android', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SwatiBhamareUIUXDeveloper</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>8329911620</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>swatibhmr@gmail.com</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>swatibhmr</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWATI  BHAMARE </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">swatibhmr@gmail.com </t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>7.4  years</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[('Client', 'Calenergy.'), ('Client', 'Quadlogix.'), ('Client', 'Intelliquity.'), ('Client', 'GSK.'), ('Client', 'VIIV.'), ('Client', 'PC Polytechnic College.'), ('Client', 'Morachi Chinhcholi.')]</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['CSS', 'Adobe xd', 'Unit testing', 'Git', 'Adobe Xd', 'JQuery', 'JavaScript', 'Windows', 'drupal', 'Bootstrap', 'Visual Studio Code', 'quick', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SwatiZalavadiya</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>+91 9773101727</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>swati.zalavadiya@gmail.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>swati.zalavadiya</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SWATI  ZALAVADIYA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>swati.zalavadiya@gma</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>5y_4m</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['Git', 'Redux', 'jQuery', 'VUE', 'Figma', 'RESTful APIs', 'Bootstrap', 'React', 'Agile', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TamarapuKartik</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>9437512801</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>tamarapu.kartik@gmail.com</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>tamarapu.kartik</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Tamarapu Kartik</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['CSS', 'excel', 'Angular', 'Agile', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Utsahpaikray</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>VrushankModi</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vrushankm19@gmail.com</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>vrushankm</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Vrushank Modi</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>FRONT END DEVELOPER</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>4 years</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['CSS', 'Gulp', 'Git', 'React.js', 'JQuery', 'Wordpress', 'Bootstrap', 'github', 'C', 'PHP', 'HTML', 'Javascript']</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ZaheerAhmadShah</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>+919552220876</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>shahzaheer530@gmail.com</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>shahzaheer</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ZAHEER SHAH</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>FRONTEND DEVELOPER</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>7 years</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>['CSS', 'Bootstrap', 'JavaScript', 'HTML']</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/EmployeeResumeRead/employee_resumes_data.xlsx
+++ b/EmployeeResumeRead/employee_resumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,170 +466,2736 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Clients</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Exp_File</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>FolderName</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Designation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Experience</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Exp_File</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Clients</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>skills</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AbhishekVerma</t>
+          <t>AdarshaS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+91 9713152685</t>
+          <t>+917619219778</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abhi8verma@gmail.com</t>
+          <t>Email-adarshadhi2525@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>abhiverma</t>
+          <t>Email-adarshadhi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ABHISHEK VERMA</t>
+          <t>ADARSHA S</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Senior Software Engi</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5 years</t>
-        </is>
-      </c>
+          <t>Bangalore,Karnataka:</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5y_4m</t>
+          <t>6y_0m</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Angular', 'JavaScript', 'MySQL', 'agile', 'GIT', 'iOS', 'HTML', 'Bootstrap', 'scrum', 'Javascript', 'R', 'Microservices', 'unit testing', 'MongoDB', 'Typescript']</t>
-        </is>
-      </c>
+          <t>['Windows', 'Wireshark', 'nmap', 'SPLUNK']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AdhavShardaRangrao</t>
+          <t>AJITHKUMARS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9370886515</t>
+          <t>9003169268</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>shardaadhav96@gmail.com</t>
+          <t>ajith.draciel@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>shardaadhav</t>
+          <t>ajith.draciel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sharda Adhav</t>
+          <t>AJITH KUMAR S</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Email:shardaadhav96@</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3+ years</t>
-        </is>
-      </c>
+          <t>Information Security</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5y_0m</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[('Company', '- Cognizant – October 2022 to Present'), ('Company', '- Accenture – February 2019 to October 2022')]</t>
-        </is>
-      </c>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Eclipse', 'Angular', 'Scrum', 'bootstrap', 'Agile', 'JIRA', 'MySQL', 'Bootstrap', 'HTML', 'unit testing', 'Python', 'web services', 'Web services', 'Java']</t>
-        </is>
-      </c>
+          <t>['Penetration Testing', 'Splunk']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AjinkyaAshokSable</t>
+          <t>AnkitaBehera</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+919689343001</t>
+          <t>+91 8249589679</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ajinkyaimpossible@gmail.com</t>
+          <t>beheraankita1995@gmail.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ajinkyaimpossible</t>
+          <t>beheraankita</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AJINKYA ASHOK SABLE</t>
+          <t>ANKITA BEHERA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5 Years</t>
-        </is>
-      </c>
+          <t>Contact: +91 8249589</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5y_0m</t>
+          <t>6y_0m</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['CodeIgniter', 'Agile', 'JavaScript', 'MySQL', 'Bootstrap', 'HTML', 'C', 'Android', 'Windows', 'Git', 'PHP']</t>
+          <t>['android', 'Splunk']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Designation: Senior</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BALAJIPR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+91 9940971337</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>balagpy@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>balagpy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ABOUT ME</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dynamic and driven s</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9y_6m</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['R', 'iOS', 'Penetration Testing', 'Android', 'OWASP', 'Python', 'DNS']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>9+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BISWAJITMISHRA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+91 7674083358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>b.mishra2809@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>b.mishra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BISWAJIT</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Experienced cybersec</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['Nmap', 'Tableau', 'Windows', 'C', 'Azure']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BolluChinmaiKumar</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9177529585</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>chinmaikumar2727@gmail.Com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>chinmaikumar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['Nmap', 'Penetration testing', 'AWS', 'Linux', 'TCP/IP', 'OWASP', 'kali Linux']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>7+ Years</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BRABINKUMAR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9940846564</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>brabinkumar@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>brabinkumar</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>JOB OBJECTIVE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dedicated Informatio</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['AWS', 'Windows', 'Splunk', 'Wireshark']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DeepananthNp</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>npdeepu@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>npdeepu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DEEPANANTH NP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bangalore, India 560</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['Azure', 'TCP/IP']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DhivakarPadmanaban</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+91 9787323985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dhivakar.padmanaban@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Dhivakar.padmanaban</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dhivakar Padmanaban</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tirupur- Tamil Nadu </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10y_0m</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['VMWare', 'Splunk', 'Network Security', 'network security', 'Windows', 'Shell scripting', 'Azure', 'Jira']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>9.10 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GauravMishra</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9130154861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>gauravmishra00001@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gauravmishra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Profile Summary</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>• Result-oriented Ne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['Load Balancing', 'Network Security', 'network security', 'Windows', 'IOS', 'AWS']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>9 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GururajKS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>+91 9483450547</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gururajkulkarni2121@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>gururajkulkarni</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6y_5m</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['Azure']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HimanshuBanswal</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>+91 9555209384</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>himanshu94reva@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>himanshureva</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Himanshu Banswal</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>+91 9555209384| hima</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[('Client', '- Volkswagen (Japan)'), ('Client', '- Societe Generale')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['DevOps', 'GCP', 'Network Security', 'AWS', 'Linux']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HinaKousar</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8747097528</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>hinakousar18@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>hinakousar</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hina Kousar</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Email: hinakousar18@</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['Burp suite', 'encryption']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>8+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>InderpalSingh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Indersodhi0007@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Indersodhi</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Inderpal Singh</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Contact No.: +91-788</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['R', 'requests']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>6 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IsrarUlMaqbool</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9596333345</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>israrshaun@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>israrshaun</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['Nmap', 'Penetration testing', 'Penetration Testing', 'Network Security', 'Wireshark', 'AWS', 'Windows', 'DNS', 'Azure', 'Metasploit']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KANBUSELVAM</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>+91 9884930361</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>anbuselvam.cse@gmail.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>anbuselvam.cse</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['AWS', 'Network Security', 'Encryption']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>8 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KAVYAHN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>+919620954607</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>kavyanagaraj7@gmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>kavyanagaraj</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Kavya H N</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['Splunk', 'Network Security', 'MITRE ATT&amp;CK', 'OWASP', 'SPLUNK']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>6+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LishanS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>+91 7795345342</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>lishan93@gmail.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>lishan</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lishan S</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PROFILE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>7y_6m</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['Azure', 'TCP/IP', 'DNS', 'JSON']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MAHANTESHSHIREMATH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>+918073517903</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mahantthewise15@gmail.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>mahantthewise</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mahantesh S Hiremath</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>+918073517903 · maha</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>6y_6m</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['Excel', 'Wireshark', 'network security']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Manikandasamy</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>+91 9944460108</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>manikandasamy1996@gmail.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>manikandasamy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>manikandasamy1996@gm</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>+91 9944460108</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['Penetration Testing', 'AWS', 'Kubernetes', 'OWASP', 'Jira']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Manjunath</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9845126452</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>netajimanjunath@gmail.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>netajimanjunath</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9845126452</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MANJUNATH M N</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5y_5m</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['Splunk', 'MITRE ATT&amp;CK', 'TCP/IP', 'JIRA', 'DNS']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Role: Sr</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MohammadRahishAhmad</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9835373007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>er.ahmad.rahish2011@gmail.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>er.ahmad.rahish</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MD RAHISH AHMAD ✆ +9</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Email: er.ahmad.rahi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['quick']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MRAGHAVENDHAR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>+91 9700659605</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>m.raghavendhar1993@gmail.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>m.raghavendhar</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['Windows', 'Quick', 'Splunk', 'TCP/IP']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>8+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nandakishore</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>+91 8919610073</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>nandakishore.pilli776472@gmail.com</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>nandakishore.pilli</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5y_7m</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['Penetration Testing', 'Splunk', 'MITRE ATT&amp;CK', 'Windows', 'TCP/IP', 'JIRA', 'OWASP']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NikhathShazia</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>+916300924431</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Shazianikhath125@gmail.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Shazianikhath</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SOC Analyst | SIEM |</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Email: Shazianikhath</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>5y_1m</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NiteshKumar</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9031713713</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>niteshalpha051@gmail.com</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>niteshalpha</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Curriculum Vitae</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Name: Nitesh Kumar E</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[('Client', 'Dell) [8th July 2023 – Till Date]'), ('Client', 'Dell) [8th July 2023 – Till Date]')]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Designation: Senior</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>9+ Years</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PadmanabhaAM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9535969463</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ampadmanabha@gmail.com</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ampadmanabha</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PADMANABHA A M</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mob: +9535969463</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Parameshwara</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>+91 8197878760</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>parameshwaragv02@gmail.com</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>parameshwaragv</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Parameshwara G V</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>e-mail:parameshwarag</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>8y_2m</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['Jira']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>8 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRATIKMUKHERJEE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7350024655</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>mukherjeepratik033@gmail.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>mukherjeepratik</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PRATIK MUKHERJEE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PROFESSIONAL SUMMARY</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['GCP', 'GitHub', 'network security', 'Windows', 'Kubernetes', 'OWASP', 'Jenkins', 'DNS']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RahulCM</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>+91 9901392872</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>rahulcm1025@gmail.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>rahulcm</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Rahul CM</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Senior Security Cons</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['MITRE ATT&amp;CK', 'Splunk']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>6+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RajnishDeshmukh</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9301131793</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>rajnishdeshmukh315@gmail.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rajnishdeshmukh</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[('Company', 'Sustine Solution Pvt. Ltd.Role and Responsibilities:'), ('Company', 'SAS IT Labs Pvt. Ltd.'), ('Company', 'Sun Rise Group of International Technologies')]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>6y_7m</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['R', 'observer', 'JavaScript', 'MITRE ATT&amp;CK', 'PHP']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>6.7 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RakshaShetty</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>+91 7378903278</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>rakshashetty2311@gmail.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>rakshashetty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RAKSHA SHETTY</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>23 July 1991 | raksh</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['Java', 'JavaScript', 'Android', 'Windows', 'play']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>7 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RAVINDRAYALLA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>+91 9966845882</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ravindrayallapbpalli@gmail.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ravindrayallapbpalli</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Curriculum Vitae</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>RESUME OBJECTIVE</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['Docker', 'MLflow', 'GitHub', 'Airflow', 'network security', 'AWS', 'machine learning', 'Git', 'Jenkins', 'DNS']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RAVISINGH</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>9886870819</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ravis.lenovo@gmail.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ravis.lenovo</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RAVI SINGH</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>91 9886870819  Bang</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>7+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RavitejaPasupuleti</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ravisoc92@gmail.com</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ravisoc</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R A V I T E J A P A </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C O N T A C T E X P </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['R', 'android', 'C']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>7 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RavitejaVummadi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>8885419077</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ravitejavummadics@gmail.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ravitejavummadics</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['requests', 'Network Security', 'Wireshark', 'Windows', 'JIRA', 'Python']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>7.9+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ROHITTIWARI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7987349348</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>rohit.frendz1@gmail.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>rohit.frendz</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ROHIT TIWARI</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Senior Associate - S</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['Splunk', 'AWS', 'MITRE ATT&amp;CK', 'Windows', 'OWASP', 'windows']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ruksana</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9900601971</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ruksana.blore@gmail.com</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ruksana.blore</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Name: Ruksana</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Contact Number:99006</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>10y_0m</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['excel', 'Network Security']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RynaKMathew</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9980420003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>rynamathew@gmail.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>rynamathew</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['requests', 'Salesforce', 'web services', 'JIRA', 'Oracle', 'Python', 'Jira']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SACHINRATHOD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>sachinrathod9509@gmail.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>sachinrathod</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SACHIN RATHOD</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>■ Bengaluru,India 56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>5y_2m</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['Penetration testing', 'Terraform', 'Chef', 'Splunk', 'Wireshark', 'AWS', 'Azure', 'OSINT', 'Jira']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sampath</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>+91 6304461930</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>sampathucan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>sampathucan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SAMPATH REDDY KODURU</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Phone: +91 630446193</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['Splunk', 'windows']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>5+ Years</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SangeetaDebnath</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9765333223</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>banerjeesiya19@gmail.com</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>banerjeesiya</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sangeeta Debnath</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sr. InfoSec Analyst</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>5y_5m</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['R']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SasikanthKankara</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7993475421</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>jaganreddy45121@outlook.com</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>jaganreddy</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[('CLIENT', 'American International Group (AIG), US')]</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>5y_3m</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['File system', 'encryption', 'Adapter']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SatyaNarayanaCH</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>+919164469989</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>snarayanach.it@gmail.com</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>snarayanach.it</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Satya Narayana CH</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Principal Consultant</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>6y_1m</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['DevOps', 'penetration testing', 'Penetration testing', 'SOAP', 'Burp Suite', 'SonarQube', 'GitHub', 'Splunk', 'Java', 'Network Security', 'AWS', 'Azure', 'Oracle', 'OWASP']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>6+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SayyadTouseefHussaini</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>+91 8951750565</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sayyadtouseef@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sayyadtouseef</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sayyad Touseef Hussa</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PMO|Senior Cyber Sec</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['IOT', 'iOS', 'c', 'WIRESHARK', 'PostMan', 'Penetration Testing', 'NMAP', 'Android', 'OWASP', 'OSINT']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>6 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ShaikBabaFakruddin</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9014227698</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>shkchinnu3888@gmail.com</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>shkchinnu</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Shaik Baba Fakruddin</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>+91-9014227698</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>5y_8m</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Nmap', 'requests', 'Network Security', 'Windows', 'DNS', 'Kali Linux']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ShwethaShrimanth</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>+91 7019200904</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>shwethashrimanth23@gmail.com</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>shwethashrimanth</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>5y_1m</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['Splunk', 'requests']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SujithNS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>+91 8904648199</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sujithns2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>sujithns</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['requests', 'Windows', 'C', 'windows', 'PowerShell', 'Amazon Web Services']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>11 Years</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SushilKumar</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6363101366</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>officialsushil@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>officialsushil</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SUSHIL KUMAR</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>CYBER SECURITY ENGIN</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>6y_0m</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Penetration testing', 'Penetration Testing', 'Java', 'IoT', 'Network Security', 'AWS', 'OWASP', 'Python', 'Docker']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SUSHMASUMAN</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>9629285063</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>suman.sushma2801@gmail.com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>suman.sushma</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SUSHMA SUMAN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>suman.sushma2801@gma</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>9y_0m</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['Penetration Testing', 'IoT', 'Encryption', 'Network security', 'AWS', 'OWASP']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>9 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SyedMohammadThahir</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>+91 9573073119</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>thahirmsyed@gmail.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>thahirmsyed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>5y_6m</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['Strategy', 'Postman', 'SQL', 'Penetration Testing', 'Burp Suite', 'VMWare', 'HTML', 'Windows', 'Kali Linux', 'OWASP', 'Jira', 'POSTMAN']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>4.1 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UnniKrishnan</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>uk.unnikrishnan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>uk.unnikrishnan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CURRICULUM VITAE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>UNNI KRISHNAN Email:</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>7y_0m</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['Windows', 'penetration testing']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>UshakiranGollapalli</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ugollapalli9@gmail.com</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ugollapalli</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Phone: 00971-5678998</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>USHAKIRAN GOLLAPALLI</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>10y_0m</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['AWS', 'Network Security', 'Network security']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>10 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>UshaKR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ushakr10@gmail.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ushakr</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>USHA KR</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Senior Security Anal</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>5y_0m</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['Apex', 'MITRE ATT&amp;CK', 'Splunk']</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>5+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>VenkateshD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>+91 8688203464</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>venkateshiam13@gmail.com</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>venkateshiam</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>VENKATESH D</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CyberArk Security En</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>8y_2m</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['python', 'Powershell', 'Hive', 'Windows', 'Oracle', 'Python', 'windows']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>8+ years</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>VijayakumarRelangi</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>+91 7396156160</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>rvk262321@gmail.com</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>rvk</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>VIJAYA KUMAR R  rvk</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t> +91 7396156160</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>6y_1m</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['R', 'penetration testing', 'Penetration Testing', 'Splunk', 'network security', 'web services', 'OWASP']</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>6 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vishnuvs</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Vishnu VS/Endpoint P</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Security, Team manag</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>9y_2m</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['requests', 'Network Security', 'AWS', 'Linux', 'Python']</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Vishwanath</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>9591679794</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vishs2907@gmail.com</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>vishs</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>+91-9591679794</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vishs2907@gmail.com </t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>8y_0m</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['Kali Linux', 'AWS', 'C', 'Azure', 'OWASP', 'windows']</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>8.3 YEARS</t>
         </is>
       </c>
     </row>
